--- a/MatProg/lab2/Lab2/Lab2.xlsx
+++ b/MatProg/lab2/Lab2/Lab2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9270B18-BC0F-4F3D-9B4D-90F30EEDA95F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F7ADA-E416-4E6F-BD0A-F64E7E0C1B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -57,28 +57,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -111,31 +99,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость времени вычисления от кол-ва контейнеров</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1248906386701742E-3"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -149,11 +120,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -175,71 +146,17 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="70000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="110000"/>
-                      <a:satMod val="105000"/>
-                      <a:tint val="67000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="103000"/>
-                      <a:tint val="73000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="105000"/>
-                      <a:satMod val="109000"/>
-                      <a:tint val="81000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$12</c:f>
@@ -327,7 +244,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ECCD-495D-8979-159F3A6B5ECF}"/>
+              <c16:uniqueId val="{00000000-5153-4D5B-BE2C-5C28A3667BE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,14 +256,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="756126208"/>
-        <c:axId val="756127872"/>
+        <c:axId val="1740445567"/>
+        <c:axId val="1901663871"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="756126208"/>
+        <c:axId val="1740445567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -354,7 +270,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -370,9 +286,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="rnd">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -386,9 +302,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -401,12 +317,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756127872"/>
+        <c:crossAx val="1901663871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="756127872"/>
+        <c:axId val="1901663871"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +332,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -432,9 +348,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="rnd">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="25000"/>
                 <a:lumOff val="75000"/>
               </a:schemeClr>
@@ -448,9 +364,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -463,26 +379,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="756126208"/>
+        <c:crossAx val="1740445567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:alpha val="0"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -491,15 +393,22 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -567,35 +476,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -603,20 +512,20 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -624,16 +533,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -667,66 +576,39 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -735,21 +617,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -777,15 +656,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -800,7 +680,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -809,9 +689,9 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -825,12 +705,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -844,12 +724,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -863,20 +743,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -890,12 +776,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -909,12 +795,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -922,18 +827,58 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -941,105 +886,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1048,13 +906,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1063,7 +922,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1075,12 +934,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
@@ -1088,15 +956,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
@@ -1104,15 +972,21 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1122,22 +996,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C726C241-257D-452C-BA42-FE962DCF6435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,17 +1297,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,91 +1315,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>25</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>26</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>27</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>29</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>30</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>31</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>33</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>35</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>375</v>
       </c>
     </row>
